--- a/江西/导出模板/合同分析模板.xlsx
+++ b/江西/导出模板/合同分析模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="4"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="汇总统计" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="43">
   <si>
     <t>数据项</t>
   </si>
@@ -51,100 +51,103 @@
     <t>电厂名称</t>
   </si>
   <si>
+    <t>汇总</t>
+  </si>
+  <si>
+    <t>01:00</t>
+  </si>
+  <si>
+    <t>02:00</t>
+  </si>
+  <si>
+    <t>03:00</t>
+  </si>
+  <si>
+    <t>04:00</t>
+  </si>
+  <si>
+    <t>05:00</t>
+  </si>
+  <si>
+    <t>06:00</t>
+  </si>
+  <si>
+    <t>07:00</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>22:00</t>
+  </si>
+  <si>
+    <t>23:00</t>
+  </si>
+  <si>
+    <t>峰平谷统计</t>
+  </si>
+  <si>
+    <t>数据</t>
+  </si>
+  <si>
+    <t>尖峰</t>
+  </si>
+  <si>
+    <t>高峰</t>
+  </si>
+  <si>
+    <t>平段</t>
+  </si>
+  <si>
+    <t>低谷</t>
+  </si>
+  <si>
+    <t>电量（MWh）</t>
+  </si>
+  <si>
+    <t>占比（%）</t>
+  </si>
+  <si>
     <t>机组名称</t>
-  </si>
-  <si>
-    <t>01:00</t>
-  </si>
-  <si>
-    <t>02:00</t>
-  </si>
-  <si>
-    <t>03:00</t>
-  </si>
-  <si>
-    <t>04:00</t>
-  </si>
-  <si>
-    <t>05:00</t>
-  </si>
-  <si>
-    <t>06:00</t>
-  </si>
-  <si>
-    <t>07:00</t>
-  </si>
-  <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>17:00</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t>19:00</t>
-  </si>
-  <si>
-    <t>20:00</t>
-  </si>
-  <si>
-    <t>21:00</t>
-  </si>
-  <si>
-    <t>22:00</t>
-  </si>
-  <si>
-    <t>23:00</t>
-  </si>
-  <si>
-    <t>峰平谷统计</t>
-  </si>
-  <si>
-    <t>数据</t>
-  </si>
-  <si>
-    <t>尖峰</t>
-  </si>
-  <si>
-    <t>高峰</t>
-  </si>
-  <si>
-    <t>平段</t>
-  </si>
-  <si>
-    <t>低谷</t>
-  </si>
-  <si>
-    <t>电量（MWh）</t>
-  </si>
-  <si>
-    <t>占比（%）</t>
   </si>
 </sst>
 </file>
@@ -1193,8 +1196,8 @@
   </sheetPr>
   <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AB9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="16.8" customHeight="1"/>
@@ -1528,7 +1531,7 @@
   <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AB5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="16.8" customHeight="1" outlineLevelRow="7"/>
@@ -1759,7 +1762,7 @@
   <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AB7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="16.8" customHeight="1" outlineLevelRow="6"/>
@@ -2040,7 +2043,7 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -2127,7 +2130,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>

--- a/江西/导出模板/合同分析模板.xlsx
+++ b/江西/导出模板/合同分析模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="汇总统计" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="44">
   <si>
     <t>数据项</t>
   </si>
@@ -147,7 +147,10 @@
     <t>占比（%）</t>
   </si>
   <si>
-    <t>机组名称</t>
+    <t>合同类型</t>
+  </si>
+  <si>
+    <t>中长期持仓均价-中长期折算日前加权均价（元/MWh）</t>
   </si>
 </sst>
 </file>
@@ -802,23 +805,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -888,7 +891,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1143,45 +1146,45 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="16.8" customHeight="1" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="29.6666666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.3333333333333" style="2" customWidth="1"/>
-    <col min="5" max="6" width="20.6666666666667" style="2" customWidth="1"/>
-    <col min="7" max="7" width="34" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="6" width="20.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1196,326 +1199,326 @@
   </sheetPr>
   <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="16.8" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.3333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" customWidth="1"/>
-    <col min="28" max="28" width="11" style="2"/>
+    <col min="1" max="1" width="10.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:28">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:27">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
     </row>
     <row r="3" customHeight="1" spans="1:27">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
     </row>
     <row r="4" customHeight="1" spans="1:27">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
     </row>
     <row r="5" customHeight="1" spans="1:27">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
     </row>
     <row r="6" customHeight="1" spans="1:27">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
     </row>
     <row r="7" customHeight="1" spans="1:27">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
     </row>
     <row r="8" customHeight="1" spans="1:27">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
     </row>
     <row r="9" customHeight="1" spans="1:27">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1536,217 +1539,217 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="16.8" customHeight="1" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="10.3333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" customWidth="1"/>
-    <col min="28" max="28" width="11" style="2"/>
+    <col min="1" max="1" width="10.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:28">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:27">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
     </row>
     <row r="3" customHeight="1" spans="1:27">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
     </row>
     <row r="4" customHeight="1" spans="1:27">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
     </row>
     <row r="5" customHeight="1" spans="1:27">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
     </row>
     <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="7"/>
+      <c r="A6" s="6"/>
     </row>
     <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="7"/>
+      <c r="A7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="7"/>
+      <c r="A8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1767,268 +1770,268 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="16.8" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="4" max="4" width="29.6666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.6666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:28">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:28">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
     </row>
     <row r="3" customHeight="1" spans="1:28">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
     </row>
     <row r="4" customHeight="1" spans="1:28">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
     </row>
     <row r="5" customHeight="1" spans="1:28">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
     </row>
     <row r="6" customHeight="1" spans="1:28">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
     </row>
     <row r="7" customHeight="1" spans="1:28">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2049,53 +2052,53 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="16.8" customHeight="1" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.8333333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.8333333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2109,104 +2112,50 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="15.6" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="3" width="8.72727272727273" customWidth="1"/>
-    <col min="4" max="4" width="20.9090909090909" customWidth="1"/>
-    <col min="5" max="28" width="8.72727272727273" style="1"/>
+    <col min="2" max="2" width="9.16666666666667"/>
+    <col min="3" max="3" width="29.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.72727272727273" customWidth="1"/>
+    <col min="6" max="6" width="20.9090909090909" customWidth="1"/>
+    <col min="7" max="7" width="8.72727272727273" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB1" s="4">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
